--- a/Data/Extracto_prueba2.xlsx
+++ b/Data/Extracto_prueba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German Lucero\ProyectosChino\Crawl-Compare\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DDBF8-42DD-41E6-B0E0-C0E1842F180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED36A8E-A776-4007-88B7-172A902CA563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{826B6FE4-41F4-40F0-82C6-7D560F0E04C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{826B6FE4-41F4-40F0-82C6-7D560F0E04C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="133">
   <si>
     <t>Accommodations</t>
   </si>
@@ -2885,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C3EB9-C277-42CD-B96A-0D36154DA426}">
   <dimension ref="A1:K279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5928,7 +5928,7 @@
       <c r="A201" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B201" s="72"/>
+      <c r="B201" s="88"/>
       <c r="C201" s="94">
         <v>1146.6666666666667</v>
       </c>
@@ -6754,7 +6754,9 @@
       <c r="A254" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B254" s="72"/>
+      <c r="B254" s="88" t="s">
+        <v>129</v>
+      </c>
       <c r="C254" s="94">
         <v>940</v>
       </c>
@@ -6773,7 +6775,9 @@
       <c r="A255" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B255" s="72"/>
+      <c r="B255" s="88" t="s">
+        <v>129</v>
+      </c>
       <c r="C255" s="94">
         <v>966.66666666666663</v>
       </c>
@@ -6792,7 +6796,9 @@
       <c r="A256" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B256" s="72"/>
+      <c r="B256" s="88" t="s">
+        <v>129</v>
+      </c>
       <c r="C256" s="94">
         <v>1106.6666666666667</v>
       </c>
@@ -6811,7 +6817,9 @@
       <c r="A257" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B257" s="72"/>
+      <c r="B257" s="88" t="s">
+        <v>129</v>
+      </c>
       <c r="C257" s="94">
         <v>1153.3333333333333</v>
       </c>
